--- a/database/industries/ghaza/ghezar/product/yearly.xlsx
+++ b/database/industries/ghaza/ghezar/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD9B3E1-3971-42B9-AD76-2F297DCAEDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CE37CE-ED11-40FD-B36C-4748C1A5A200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>سایر محصولات</t>
   </si>
   <si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>ریال / ریال</t>
-  </si>
-  <si>
-    <t>کیلوگرم / ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -599,12 +596,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -614,7 +611,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,7 +623,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -638,7 +635,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -648,7 +645,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -660,7 +657,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -672,7 +669,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -682,7 +679,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -704,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -714,7 +711,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -728,17 +725,17 @@
       <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
+      <c r="G10" s="9">
+        <v>6837</v>
       </c>
       <c r="H10" s="9">
-        <v>6837</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -747,22 +744,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>129092</v>
-      </c>
-      <c r="F11" s="11">
         <v>291565</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
+      <c r="H11" s="11">
+        <v>5015</v>
       </c>
       <c r="I11" s="11">
-        <v>5015</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7653</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -773,12 +770,12 @@
       <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="9">
         <v>2075</v>
       </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H12" s="9" t="s">
         <v>12</v>
       </c>
@@ -786,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -795,22 +792,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>456</v>
-      </c>
-      <c r="F13" s="11">
         <v>1309</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -821,12 +818,12 @@
       <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="9">
         <v>350</v>
       </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>12</v>
       </c>
@@ -834,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
@@ -849,14 +846,14 @@
       <c r="G15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>12</v>
+      <c r="H15" s="11">
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
@@ -865,22 +862,22 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>44091</v>
-      </c>
-      <c r="F16" s="9">
         <v>63446</v>
       </c>
+      <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>12</v>
+      <c r="H16" s="9">
+        <v>161484</v>
       </c>
       <c r="I16" s="9">
-        <v>161484</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110778</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
@@ -891,12 +888,12 @@
       <c r="E17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="F17" s="11">
         <v>136989</v>
       </c>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H17" s="11" t="s">
         <v>12</v>
       </c>
@@ -904,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
@@ -913,22 +910,22 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>14263</v>
-      </c>
-      <c r="F18" s="9">
         <v>18831</v>
       </c>
+      <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>12</v>
+      <c r="H18" s="9">
+        <v>37383</v>
       </c>
       <c r="I18" s="9">
-        <v>37383</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32470</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -939,12 +936,12 @@
       <c r="E19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="F19" s="11">
         <v>29854</v>
       </c>
+      <c r="G19" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H19" s="11" t="s">
         <v>12</v>
       </c>
@@ -952,7 +949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -961,22 +958,22 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>1153</v>
-      </c>
-      <c r="F20" s="9">
         <v>1211</v>
       </c>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>12</v>
+      <c r="H20" s="9">
+        <v>0</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -987,12 +984,12 @@
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="F21" s="11">
         <v>2015</v>
       </c>
+      <c r="G21" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H21" s="11" t="s">
         <v>12</v>
       </c>
@@ -1000,7 +997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1009,22 +1006,22 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>3787</v>
-      </c>
-      <c r="F22" s="9">
         <v>3625</v>
       </c>
+      <c r="F22" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>12</v>
+      <c r="H22" s="9">
+        <v>0</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1035,12 +1032,12 @@
       <c r="E23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="F23" s="11">
         <v>2918</v>
       </c>
+      <c r="G23" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H23" s="11" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
@@ -1057,22 +1054,22 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
-        <v>20278</v>
-      </c>
-      <c r="F24" s="9">
         <v>1205</v>
       </c>
+      <c r="F24" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>12</v>
+      <c r="H24" s="9">
+        <v>0</v>
       </c>
       <c r="I24" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>21</v>
       </c>
@@ -1083,12 +1080,12 @@
       <c r="E25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="11">
+      <c r="F25" s="11">
         <v>2657</v>
       </c>
+      <c r="G25" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H25" s="11" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
@@ -1105,22 +1102,22 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>1328</v>
-      </c>
-      <c r="F26" s="9">
         <v>1268</v>
       </c>
+      <c r="F26" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>12</v>
+      <c r="H26" s="9">
+        <v>0</v>
       </c>
       <c r="I26" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
@@ -1131,12 +1128,12 @@
       <c r="E27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="F27" s="11">
         <v>1180</v>
       </c>
+      <c r="G27" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H27" s="11" t="s">
         <v>12</v>
       </c>
@@ -1144,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1153,22 +1150,22 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>1477</v>
+        <v>2288</v>
       </c>
       <c r="F28" s="9">
-        <v>2288</v>
-      </c>
-      <c r="G28" s="9">
         <v>2974</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>12</v>
+      <c r="G28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
       </c>
       <c r="I28" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>24</v>
       </c>
@@ -1182,17 +1179,17 @@
       <c r="F29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>12</v>
+      <c r="G29" s="11">
+        <v>184341</v>
       </c>
       <c r="H29" s="11">
-        <v>184341</v>
+        <v>28564</v>
       </c>
       <c r="I29" s="11">
-        <v>28564</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9209</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
@@ -1209,14 +1206,14 @@
       <c r="G30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>12</v>
+      <c r="H30" s="9">
+        <v>0</v>
       </c>
       <c r="I30" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>26</v>
       </c>
@@ -1230,17 +1227,17 @@
       <c r="F31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>12</v>
+      <c r="G31" s="11">
+        <v>6125</v>
       </c>
       <c r="H31" s="11">
-        <v>6125</v>
+        <v>5425</v>
       </c>
       <c r="I31" s="11">
-        <v>5425</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
@@ -1254,39 +1251,39 @@
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>12</v>
+      <c r="G32" s="9">
+        <v>39699</v>
       </c>
       <c r="H32" s="9">
-        <v>39699</v>
+        <v>7376</v>
       </c>
       <c r="I32" s="9">
-        <v>7376</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>215925</v>
+        <v>384748</v>
       </c>
       <c r="F33" s="13">
-        <v>384748</v>
+        <v>181012</v>
       </c>
       <c r="G33" s="13">
-        <v>181012</v>
+        <v>237002</v>
       </c>
       <c r="H33" s="13">
-        <v>237002</v>
+        <v>245247</v>
       </c>
       <c r="I33" s="13">
-        <v>245247</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>179859</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1296,7 +1293,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1306,7 +1303,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1316,7 +1313,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>29</v>
       </c>
@@ -1338,7 +1335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1348,7 +1345,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>10</v>
       </c>
@@ -1362,17 +1359,17 @@
       <c r="F39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>12</v>
+      <c r="G39" s="9">
+        <v>6783</v>
       </c>
       <c r="H39" s="9">
-        <v>6783</v>
+        <v>0</v>
       </c>
       <c r="I39" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>30</v>
       </c>
@@ -1383,20 +1380,20 @@
       <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>12</v>
+      <c r="F40" s="11">
+        <v>-1309</v>
       </c>
       <c r="G40" s="11">
-        <v>-1309</v>
-      </c>
-      <c r="H40" s="11">
         <v>-2777</v>
       </c>
+      <c r="H40" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I40" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>13</v>
       </c>
@@ -1405,22 +1402,22 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>129092</v>
+        <v>291565</v>
       </c>
       <c r="F41" s="9">
-        <v>291565</v>
-      </c>
-      <c r="G41" s="9">
         <v>2209</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>12</v>
+      <c r="G41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="9">
+        <v>4569</v>
       </c>
       <c r="I41" s="9">
-        <v>4569</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7936</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>13</v>
       </c>
@@ -1444,7 +1441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>15</v>
       </c>
@@ -1453,22 +1450,22 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>456</v>
+        <v>1309</v>
       </c>
       <c r="F43" s="9">
-        <v>1309</v>
-      </c>
-      <c r="G43" s="9">
         <v>364</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>12</v>
+      <c r="G43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
       </c>
       <c r="I43" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>15</v>
       </c>
@@ -1492,7 +1489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>16</v>
       </c>
@@ -1501,8 +1498,8 @@
       <c r="E45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>12</v>
+      <c r="F45" s="9">
+        <v>0</v>
       </c>
       <c r="G45" s="9">
         <v>0</v>
@@ -1514,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>17</v>
       </c>
@@ -1523,22 +1520,22 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>44091</v>
+        <v>63446</v>
       </c>
       <c r="F46" s="11">
-        <v>63446</v>
-      </c>
-      <c r="G46" s="11">
         <v>137802</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>12</v>
+      <c r="G46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="11">
+        <v>156755</v>
       </c>
       <c r="I46" s="11">
-        <v>156755</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110067</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>17</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>18</v>
       </c>
@@ -1571,22 +1568,22 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>14263</v>
+        <v>18831</v>
       </c>
       <c r="F48" s="11">
-        <v>18831</v>
-      </c>
-      <c r="G48" s="11">
         <v>30033</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>12</v>
+      <c r="G48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="11">
+        <v>36699</v>
       </c>
       <c r="I48" s="11">
-        <v>36699</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32502</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>18</v>
       </c>
@@ -1610,7 +1607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>19</v>
       </c>
@@ -1619,22 +1616,22 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>1153</v>
+        <v>1211</v>
       </c>
       <c r="F50" s="11">
-        <v>1211</v>
-      </c>
-      <c r="G50" s="11">
         <v>2029</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>12</v>
+      <c r="G50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
       </c>
       <c r="I50" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>19</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>20</v>
       </c>
@@ -1667,22 +1664,22 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>3787</v>
+        <v>3625</v>
       </c>
       <c r="F52" s="11">
-        <v>3625</v>
-      </c>
-      <c r="G52" s="11">
         <v>3027</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>12</v>
+      <c r="G52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
       </c>
       <c r="I52" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>20</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>21</v>
       </c>
@@ -1715,22 +1712,22 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>20278</v>
+        <v>1205</v>
       </c>
       <c r="F54" s="11">
-        <v>1205</v>
-      </c>
-      <c r="G54" s="11">
         <v>2671</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>12</v>
+      <c r="G54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
       </c>
       <c r="I54" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>21</v>
       </c>
@@ -1754,7 +1751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>22</v>
       </c>
@@ -1763,22 +1760,22 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>1328</v>
+        <v>1268</v>
       </c>
       <c r="F56" s="11">
-        <v>1268</v>
-      </c>
-      <c r="G56" s="11">
         <v>1195</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>12</v>
+      <c r="G56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
       </c>
       <c r="I56" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>22</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>23</v>
       </c>
@@ -1811,22 +1808,22 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>1477</v>
+        <v>2288</v>
       </c>
       <c r="F58" s="11">
-        <v>2288</v>
-      </c>
-      <c r="G58" s="11">
         <v>2990</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>12</v>
+      <c r="G58" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
       </c>
       <c r="I58" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>24</v>
       </c>
@@ -1840,17 +1837,17 @@
       <c r="F59" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>12</v>
+      <c r="G59" s="9">
+        <v>168188</v>
       </c>
       <c r="H59" s="9">
-        <v>168188</v>
+        <v>27258</v>
       </c>
       <c r="I59" s="9">
-        <v>27258</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9351</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>25</v>
       </c>
@@ -1867,14 +1864,14 @@
       <c r="G60" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>12</v>
+      <c r="H60" s="11">
+        <v>0</v>
       </c>
       <c r="I60" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>26</v>
       </c>
@@ -1888,17 +1885,17 @@
       <c r="F61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>12</v>
+      <c r="G61" s="9">
+        <v>5729</v>
       </c>
       <c r="H61" s="9">
-        <v>5729</v>
+        <v>5403</v>
       </c>
       <c r="I61" s="9">
-        <v>5403</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>27</v>
       </c>
@@ -1912,39 +1909,39 @@
       <c r="F62" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="11" t="s">
-        <v>12</v>
+      <c r="G62" s="11">
+        <v>37148</v>
       </c>
       <c r="H62" s="11">
-        <v>37148</v>
+        <v>7317</v>
       </c>
       <c r="I62" s="11">
-        <v>7317</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6853</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>215925</v>
+        <v>384748</v>
       </c>
       <c r="F63" s="15">
-        <v>384748</v>
+        <v>181011</v>
       </c>
       <c r="G63" s="15">
-        <v>181011</v>
+        <v>215071</v>
       </c>
       <c r="H63" s="15">
-        <v>215071</v>
+        <v>238001</v>
       </c>
       <c r="I63" s="15">
-        <v>238001</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>171855</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1954,7 +1951,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1964,7 +1961,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1974,7 +1971,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>32</v>
       </c>
@@ -1996,7 +1993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2006,7 +2003,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>10</v>
       </c>
@@ -2020,17 +2017,17 @@
       <c r="F69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="9" t="s">
-        <v>12</v>
+      <c r="G69" s="9">
+        <v>1723373</v>
       </c>
       <c r="H69" s="9">
-        <v>1723373</v>
+        <v>0</v>
       </c>
       <c r="I69" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>30</v>
       </c>
@@ -2041,20 +2038,20 @@
       <c r="E70" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="11" t="s">
-        <v>12</v>
+      <c r="F70" s="11">
+        <v>-117730</v>
       </c>
       <c r="G70" s="11">
-        <v>-117730</v>
-      </c>
-      <c r="H70" s="11">
         <v>-240049</v>
       </c>
+      <c r="H70" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I70" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>13</v>
       </c>
@@ -2063,22 +2060,22 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>1273997</v>
+        <v>3012547</v>
       </c>
       <c r="F71" s="9">
-        <v>3012547</v>
-      </c>
-      <c r="G71" s="9">
         <v>345526</v>
       </c>
-      <c r="H71" s="9" t="s">
-        <v>12</v>
+      <c r="G71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1949047</v>
       </c>
       <c r="I71" s="9">
-        <v>1949047</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4128415</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>15</v>
       </c>
@@ -2087,22 +2084,22 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>10623</v>
+        <v>40402</v>
       </c>
       <c r="F72" s="11">
-        <v>40402</v>
-      </c>
-      <c r="G72" s="11">
         <v>29751</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>12</v>
+      <c r="G72" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
       </c>
       <c r="I72" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>16</v>
       </c>
@@ -2113,8 +2110,8 @@
       <c r="E73" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>12</v>
+      <c r="F73" s="9">
+        <v>0</v>
       </c>
       <c r="G73" s="9">
         <v>0</v>
@@ -2126,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>17</v>
       </c>
@@ -2135,22 +2132,22 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>1155304</v>
+        <v>1914469</v>
       </c>
       <c r="F74" s="11">
-        <v>1914469</v>
-      </c>
-      <c r="G74" s="11">
         <v>6724143</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>12</v>
+      <c r="G74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="11">
+        <v>12730033</v>
       </c>
       <c r="I74" s="11">
-        <v>12730033</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27405949</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>18</v>
       </c>
@@ -2159,22 +2156,22 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>408793</v>
+        <v>625595</v>
       </c>
       <c r="F75" s="9">
-        <v>625595</v>
-      </c>
-      <c r="G75" s="9">
         <v>1716934</v>
       </c>
-      <c r="H75" s="9" t="s">
-        <v>12</v>
+      <c r="G75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="9">
+        <v>3881530</v>
       </c>
       <c r="I75" s="9">
-        <v>3881530</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10194015</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>19</v>
       </c>
@@ -2183,22 +2180,22 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>68796</v>
+        <v>86780</v>
       </c>
       <c r="F76" s="11">
-        <v>86780</v>
-      </c>
-      <c r="G76" s="11">
         <v>272333</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>12</v>
+      <c r="G76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
       </c>
       <c r="I76" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>20</v>
       </c>
@@ -2207,22 +2204,22 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>134932</v>
+        <v>204959</v>
       </c>
       <c r="F77" s="9">
-        <v>204959</v>
-      </c>
-      <c r="G77" s="9">
         <v>244156</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>12</v>
+      <c r="G77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0</v>
       </c>
       <c r="I77" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>21</v>
       </c>
@@ -2231,22 +2228,22 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>212307</v>
+        <v>31177</v>
       </c>
       <c r="F78" s="11">
-        <v>31177</v>
-      </c>
-      <c r="G78" s="11">
         <v>133669</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>12</v>
+      <c r="G78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
       </c>
       <c r="I78" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>22</v>
       </c>
@@ -2255,22 +2252,22 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>75861</v>
+        <v>109675</v>
       </c>
       <c r="F79" s="9">
-        <v>109675</v>
-      </c>
-      <c r="G79" s="9">
         <v>175867</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>12</v>
+      <c r="G79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0</v>
       </c>
       <c r="I79" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>23</v>
       </c>
@@ -2279,22 +2276,22 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>41112</v>
+        <v>90496</v>
       </c>
       <c r="F80" s="11">
-        <v>90496</v>
-      </c>
-      <c r="G80" s="11">
         <v>203951</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>12</v>
+      <c r="G80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
       </c>
       <c r="I80" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
@@ -2308,17 +2305,17 @@
       <c r="F81" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>12</v>
+      <c r="G81" s="9">
+        <v>12874579</v>
       </c>
       <c r="H81" s="9">
-        <v>12874579</v>
+        <v>2638664</v>
       </c>
       <c r="I81" s="9">
-        <v>2638664</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1302411</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>25</v>
       </c>
@@ -2335,14 +2332,14 @@
       <c r="G82" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H82" s="11" t="s">
-        <v>12</v>
+      <c r="H82" s="11">
+        <v>0</v>
       </c>
       <c r="I82" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>26</v>
       </c>
@@ -2356,17 +2353,17 @@
       <c r="F83" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>12</v>
+      <c r="G83" s="9">
+        <v>1067451</v>
       </c>
       <c r="H83" s="9">
-        <v>1067451</v>
+        <v>1037032</v>
       </c>
       <c r="I83" s="9">
-        <v>1037032</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2157066</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -2380,39 +2377,39 @@
       <c r="F84" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="11" t="s">
-        <v>12</v>
+      <c r="G84" s="11">
+        <v>3557410</v>
       </c>
       <c r="H84" s="11">
-        <v>3557410</v>
+        <v>734163</v>
       </c>
       <c r="I84" s="11">
-        <v>734163</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1148506</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15">
-        <v>3381725</v>
+        <v>6116100</v>
       </c>
       <c r="F85" s="15">
-        <v>6116100</v>
+        <v>9728600</v>
       </c>
       <c r="G85" s="15">
-        <v>9728600</v>
+        <v>18982764</v>
       </c>
       <c r="H85" s="15">
-        <v>18982764</v>
+        <v>22970469</v>
       </c>
       <c r="I85" s="15">
-        <v>22970469</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46336362</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2422,7 +2419,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2432,7 +2429,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2442,7 +2439,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>34</v>
       </c>
@@ -2464,7 +2461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2474,7 +2471,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>10</v>
       </c>
@@ -2488,17 +2485,17 @@
       <c r="F91" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="9" t="s">
-        <v>12</v>
+      <c r="G91" s="9">
+        <v>254072387</v>
       </c>
       <c r="H91" s="9">
-        <v>254072387</v>
+        <v>0</v>
       </c>
       <c r="I91" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>30</v>
       </c>
@@ -2509,68 +2506,68 @@
       <c r="E92" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>12</v>
+      <c r="F92" s="11">
+        <v>0</v>
       </c>
       <c r="G92" s="11">
         <v>0</v>
       </c>
-      <c r="H92" s="11">
-        <v>0</v>
+      <c r="H92" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>9868907</v>
+        <v>10332334</v>
       </c>
       <c r="F93" s="9">
-        <v>10332334</v>
-      </c>
-      <c r="G93" s="9">
         <v>156417383</v>
       </c>
-      <c r="H93" s="9" t="s">
-        <v>12</v>
+      <c r="G93" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="9">
+        <v>426580652</v>
       </c>
       <c r="I93" s="9">
-        <v>426580652</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>520213584</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>23296053</v>
+        <v>30864782</v>
       </c>
       <c r="F94" s="11">
-        <v>30864782</v>
-      </c>
-      <c r="G94" s="11">
         <v>81733516</v>
       </c>
-      <c r="H94" s="11" t="s">
-        <v>12</v>
+      <c r="G94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
       </c>
       <c r="I94" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>16</v>
       </c>
@@ -2581,164 +2578,164 @@
       <c r="E95" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="9" t="s">
-        <v>12</v>
+      <c r="F95" s="9">
+        <v>0</v>
       </c>
       <c r="G95" s="9">
         <v>0</v>
       </c>
-      <c r="H95" s="9">
-        <v>0</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H95" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
-        <v>26202717</v>
+        <v>30174779</v>
       </c>
       <c r="F96" s="11">
-        <v>30174779</v>
-      </c>
-      <c r="G96" s="11">
         <v>48795685</v>
       </c>
-      <c r="H96" s="11" t="s">
-        <v>12</v>
+      <c r="G96" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="11">
+        <v>81209741</v>
       </c>
       <c r="I96" s="11">
-        <v>81209741</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>248993331</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>28661081</v>
+        <v>33221550</v>
       </c>
       <c r="F97" s="9">
-        <v>33221550</v>
-      </c>
-      <c r="G97" s="9">
         <v>57168248</v>
       </c>
-      <c r="H97" s="9" t="s">
-        <v>12</v>
+      <c r="G97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="9">
+        <v>105766642</v>
       </c>
       <c r="I97" s="9">
-        <v>105766642</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>313642699</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>59666956</v>
+        <v>71659785</v>
       </c>
       <c r="F98" s="11">
-        <v>71659785</v>
-      </c>
-      <c r="G98" s="11">
         <v>134220306</v>
       </c>
-      <c r="H98" s="11" t="s">
-        <v>12</v>
+      <c r="G98" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
       </c>
       <c r="I98" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>35630314</v>
+        <v>56540414</v>
       </c>
       <c r="F99" s="9">
-        <v>56540414</v>
-      </c>
-      <c r="G99" s="9">
         <v>80659399</v>
       </c>
-      <c r="H99" s="9" t="s">
-        <v>12</v>
+      <c r="G99" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="9">
+        <v>0</v>
       </c>
       <c r="I99" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>10469820</v>
+        <v>25873029</v>
       </c>
       <c r="F100" s="11">
-        <v>25873029</v>
-      </c>
-      <c r="G100" s="11">
         <v>50044553</v>
       </c>
-      <c r="H100" s="11" t="s">
-        <v>12</v>
+      <c r="G100" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0</v>
       </c>
       <c r="I100" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>57124247</v>
+        <v>86494480</v>
       </c>
       <c r="F101" s="9">
-        <v>86494480</v>
-      </c>
-      <c r="G101" s="9">
         <v>147169038</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>12</v>
+      <c r="G101" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="9">
+        <v>0</v>
       </c>
       <c r="I101" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>23</v>
       </c>
@@ -2747,22 +2744,22 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>27834800</v>
+        <v>39552448</v>
       </c>
       <c r="F102" s="11">
-        <v>39552448</v>
-      </c>
-      <c r="G102" s="11">
         <v>68211037</v>
       </c>
-      <c r="H102" s="11" t="s">
-        <v>12</v>
+      <c r="G102" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="11">
+        <v>0</v>
       </c>
       <c r="I102" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>24</v>
       </c>
@@ -2776,17 +2773,17 @@
       <c r="F103" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="9" t="s">
-        <v>12</v>
+      <c r="G103" s="9">
+        <v>76548737</v>
       </c>
       <c r="H103" s="9">
-        <v>76548737</v>
+        <v>96803287</v>
       </c>
       <c r="I103" s="9">
-        <v>96803287</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139280398</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>25</v>
       </c>
@@ -2803,14 +2800,14 @@
       <c r="G104" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="11" t="s">
-        <v>12</v>
+      <c r="H104" s="11">
+        <v>0</v>
       </c>
       <c r="I104" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>26</v>
       </c>
@@ -2824,17 +2821,17 @@
       <c r="F105" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>12</v>
+      <c r="G105" s="9">
+        <v>186324140</v>
       </c>
       <c r="H105" s="9">
-        <v>186324140</v>
+        <v>191936332</v>
       </c>
       <c r="I105" s="9">
-        <v>191936332</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>419173339</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>27</v>
       </c>
@@ -2848,17 +2845,17 @@
       <c r="F106" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="11" t="s">
-        <v>12</v>
+      <c r="G106" s="11">
+        <v>95763164</v>
       </c>
       <c r="H106" s="11">
-        <v>95763164</v>
+        <v>100336613</v>
       </c>
       <c r="I106" s="11">
-        <v>100336613</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>167591712</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2868,7 +2865,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2878,7 +2875,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2888,9 +2885,9 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -2910,7 +2907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2920,7 +2917,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>10</v>
       </c>
@@ -2934,17 +2931,17 @@
       <c r="F112" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="9" t="s">
-        <v>12</v>
+      <c r="G112" s="9">
+        <v>-954004</v>
       </c>
       <c r="H112" s="9">
-        <v>-954004</v>
+        <v>0</v>
       </c>
       <c r="I112" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>30</v>
       </c>
@@ -2955,20 +2952,20 @@
       <c r="E113" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="11" t="s">
-        <v>12</v>
+      <c r="F113" s="11">
+        <v>0</v>
       </c>
       <c r="G113" s="11">
         <v>0</v>
       </c>
-      <c r="H113" s="11">
-        <v>0</v>
+      <c r="H113" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I113" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>13</v>
       </c>
@@ -2979,20 +2976,20 @@
       <c r="E114" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="9">
+      <c r="F114" s="9">
         <v>-232289</v>
       </c>
-      <c r="H114" s="9" t="s">
-        <v>12</v>
+      <c r="G114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="9">
+        <v>-1033342</v>
       </c>
       <c r="I114" s="9">
-        <v>-1033342</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3826992</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>15</v>
       </c>
@@ -3003,20 +3000,20 @@
       <c r="E115" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="11">
+      <c r="F115" s="11">
         <v>-18244</v>
       </c>
-      <c r="H115" s="11" t="s">
-        <v>12</v>
+      <c r="G115" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0</v>
       </c>
       <c r="I115" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>16</v>
       </c>
@@ -3027,8 +3024,8 @@
       <c r="E116" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="9" t="s">
-        <v>12</v>
+      <c r="F116" s="9">
+        <v>0</v>
       </c>
       <c r="G116" s="9">
         <v>0</v>
@@ -3040,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>17</v>
       </c>
@@ -3051,20 +3048,20 @@
       <c r="E117" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F117" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="11">
+      <c r="F117" s="11">
         <v>-3917530</v>
       </c>
-      <c r="H117" s="11" t="s">
-        <v>12</v>
+      <c r="G117" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="11">
+        <v>-8932259</v>
       </c>
       <c r="I117" s="11">
-        <v>-8932259</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-20247448</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>18</v>
       </c>
@@ -3075,20 +3072,20 @@
       <c r="E118" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F118" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="9">
+      <c r="F118" s="9">
         <v>-979872</v>
       </c>
-      <c r="H118" s="9" t="s">
-        <v>12</v>
+      <c r="G118" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="9">
+        <v>-2603851</v>
       </c>
       <c r="I118" s="9">
-        <v>-2603851</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6673776</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>19</v>
       </c>
@@ -3099,20 +3096,20 @@
       <c r="E119" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="11">
+      <c r="F119" s="11">
         <v>-115985</v>
       </c>
-      <c r="H119" s="11" t="s">
-        <v>12</v>
+      <c r="G119" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="11">
+        <v>0</v>
       </c>
       <c r="I119" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>20</v>
       </c>
@@ -3123,20 +3120,20 @@
       <c r="E120" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="9">
+      <c r="F120" s="9">
         <v>-122771</v>
       </c>
-      <c r="H120" s="9" t="s">
-        <v>12</v>
+      <c r="G120" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="9">
+        <v>0</v>
       </c>
       <c r="I120" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>21</v>
       </c>
@@ -3147,20 +3144,20 @@
       <c r="E121" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F121" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="11">
+      <c r="F121" s="11">
         <v>-77122</v>
       </c>
-      <c r="H121" s="11" t="s">
-        <v>12</v>
+      <c r="G121" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="11">
+        <v>0</v>
       </c>
       <c r="I121" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>22</v>
       </c>
@@ -3171,20 +3168,20 @@
       <c r="E122" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="9">
+      <c r="F122" s="9">
         <v>-87779</v>
       </c>
-      <c r="H122" s="9" t="s">
-        <v>12</v>
+      <c r="G122" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="9">
+        <v>0</v>
       </c>
       <c r="I122" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>23</v>
       </c>
@@ -3195,20 +3192,20 @@
       <c r="E123" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="11">
+      <c r="F123" s="11">
         <v>-121352</v>
       </c>
-      <c r="H123" s="11" t="s">
-        <v>12</v>
+      <c r="G123" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" s="11">
+        <v>0</v>
       </c>
       <c r="I123" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>24</v>
       </c>
@@ -3222,17 +3219,17 @@
       <c r="F124" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G124" s="9" t="s">
-        <v>12</v>
+      <c r="G124" s="9">
+        <v>-7169061</v>
       </c>
       <c r="H124" s="9">
-        <v>-7169061</v>
+        <v>-1553253</v>
       </c>
       <c r="I124" s="9">
-        <v>-1553253</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1720169</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>25</v>
       </c>
@@ -3249,14 +3246,14 @@
       <c r="G125" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H125" s="11" t="s">
-        <v>12</v>
+      <c r="H125" s="11">
+        <v>0</v>
       </c>
       <c r="I125" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>26</v>
       </c>
@@ -3270,17 +3267,17 @@
       <c r="F126" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G126" s="9" t="s">
-        <v>12</v>
+      <c r="G126" s="9">
+        <v>-477912</v>
       </c>
       <c r="H126" s="9">
-        <v>-477912</v>
+        <v>-631318</v>
       </c>
       <c r="I126" s="9">
-        <v>-631318</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1394666</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>27</v>
       </c>
@@ -3294,17 +3291,17 @@
       <c r="F127" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G127" s="11" t="s">
-        <v>12</v>
+      <c r="G127" s="11">
+        <v>-1918366</v>
       </c>
       <c r="H127" s="11">
-        <v>-1918366</v>
+        <v>-519124</v>
       </c>
       <c r="I127" s="11">
-        <v>-519124</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1407156</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="14" t="s">
         <v>28</v>
       </c>
@@ -3314,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="F128" s="15">
-        <v>0</v>
+        <v>-5672944</v>
       </c>
       <c r="G128" s="15">
-        <v>-5672944</v>
+        <v>-10519343</v>
       </c>
       <c r="H128" s="15">
-        <v>-10519343</v>
+        <v>-15273147</v>
       </c>
       <c r="I128" s="15">
-        <v>-15273147</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-35270207</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3336,7 +3333,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3346,7 +3343,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3356,9 +3353,9 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3378,7 +3375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3388,7 +3385,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>10</v>
       </c>
@@ -3402,17 +3399,17 @@
       <c r="F134" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G134" s="9" t="s">
-        <v>12</v>
+      <c r="G134" s="9">
+        <v>769369</v>
       </c>
       <c r="H134" s="9">
-        <v>769369</v>
+        <v>0</v>
       </c>
       <c r="I134" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>30</v>
       </c>
@@ -3423,20 +3420,20 @@
       <c r="E135" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F135" s="11" t="s">
-        <v>12</v>
+      <c r="F135" s="11">
+        <v>-117730</v>
       </c>
       <c r="G135" s="11">
-        <v>-117730</v>
-      </c>
-      <c r="H135" s="11">
         <v>-240049</v>
       </c>
+      <c r="H135" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I135" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>13</v>
       </c>
@@ -3447,20 +3444,20 @@
       <c r="E136" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F136" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="9">
+      <c r="F136" s="9">
         <v>113237</v>
       </c>
-      <c r="H136" s="9" t="s">
-        <v>12</v>
+      <c r="G136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="9">
+        <v>915705</v>
       </c>
       <c r="I136" s="9">
-        <v>915705</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>301423</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>15</v>
       </c>
@@ -3471,20 +3468,20 @@
       <c r="E137" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F137" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="11">
+      <c r="F137" s="11">
         <v>11507</v>
       </c>
-      <c r="H137" s="11" t="s">
-        <v>12</v>
+      <c r="G137" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" s="11">
+        <v>0</v>
       </c>
       <c r="I137" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>16</v>
       </c>
@@ -3495,8 +3492,8 @@
       <c r="E138" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F138" s="9" t="s">
-        <v>12</v>
+      <c r="F138" s="9">
+        <v>0</v>
       </c>
       <c r="G138" s="9">
         <v>0</v>
@@ -3508,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>17</v>
       </c>
@@ -3519,20 +3516,20 @@
       <c r="E139" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F139" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" s="11">
+      <c r="F139" s="11">
         <v>2806613</v>
       </c>
-      <c r="H139" s="11" t="s">
-        <v>12</v>
+      <c r="G139" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" s="11">
+        <v>3797774</v>
       </c>
       <c r="I139" s="11">
-        <v>3797774</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7158501</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>18</v>
       </c>
@@ -3543,20 +3540,20 @@
       <c r="E140" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F140" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="9">
+      <c r="F140" s="9">
         <v>737062</v>
       </c>
-      <c r="H140" s="9" t="s">
-        <v>12</v>
+      <c r="G140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" s="9">
+        <v>1277679</v>
       </c>
       <c r="I140" s="9">
-        <v>1277679</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3520239</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>19</v>
       </c>
@@ -3567,20 +3564,20 @@
       <c r="E141" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F141" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="11">
+      <c r="F141" s="11">
         <v>156348</v>
       </c>
-      <c r="H141" s="11" t="s">
-        <v>12</v>
+      <c r="G141" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="11">
+        <v>0</v>
       </c>
       <c r="I141" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>20</v>
       </c>
@@ -3591,20 +3588,20 @@
       <c r="E142" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F142" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="9">
+      <c r="F142" s="9">
         <v>121385</v>
       </c>
-      <c r="H142" s="9" t="s">
-        <v>12</v>
+      <c r="G142" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="9">
+        <v>0</v>
       </c>
       <c r="I142" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>21</v>
       </c>
@@ -3615,20 +3612,20 @@
       <c r="E143" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F143" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="11">
+      <c r="F143" s="11">
         <v>56547</v>
       </c>
-      <c r="H143" s="11" t="s">
-        <v>12</v>
+      <c r="G143" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="11">
+        <v>0</v>
       </c>
       <c r="I143" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>22</v>
       </c>
@@ -3639,20 +3636,20 @@
       <c r="E144" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F144" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="9">
+      <c r="F144" s="9">
         <v>88088</v>
       </c>
-      <c r="H144" s="9" t="s">
-        <v>12</v>
+      <c r="G144" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" s="9">
+        <v>0</v>
       </c>
       <c r="I144" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>23</v>
       </c>
@@ -3663,20 +3660,20 @@
       <c r="E145" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" s="11">
+      <c r="F145" s="11">
         <v>82599</v>
       </c>
-      <c r="H145" s="11" t="s">
-        <v>12</v>
+      <c r="G145" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="11">
+        <v>0</v>
       </c>
       <c r="I145" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>24</v>
       </c>
@@ -3690,17 +3687,17 @@
       <c r="F146" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G146" s="9" t="s">
-        <v>12</v>
+      <c r="G146" s="9">
+        <v>5705518</v>
       </c>
       <c r="H146" s="9">
-        <v>5705518</v>
+        <v>1085411</v>
       </c>
       <c r="I146" s="9">
-        <v>1085411</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-417758</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>25</v>
       </c>
@@ -3717,14 +3714,14 @@
       <c r="G147" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H147" s="11" t="s">
-        <v>12</v>
+      <c r="H147" s="11">
+        <v>0</v>
       </c>
       <c r="I147" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>26</v>
       </c>
@@ -3738,17 +3735,17 @@
       <c r="F148" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="9" t="s">
-        <v>12</v>
+      <c r="G148" s="9">
+        <v>589539</v>
       </c>
       <c r="H148" s="9">
-        <v>589539</v>
+        <v>405714</v>
       </c>
       <c r="I148" s="9">
-        <v>405714</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>762400</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>27</v>
       </c>
@@ -3762,17 +3759,17 @@
       <c r="F149" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="11" t="s">
-        <v>12</v>
+      <c r="G149" s="11">
+        <v>1639044</v>
       </c>
       <c r="H149" s="11">
-        <v>1639044</v>
+        <v>215039</v>
       </c>
       <c r="I149" s="11">
-        <v>215039</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-258650</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="14" t="s">
         <v>28</v>
       </c>
@@ -3782,16 +3779,16 @@
         <v>0</v>
       </c>
       <c r="F150" s="15">
-        <v>0</v>
+        <v>4055656</v>
       </c>
       <c r="G150" s="15">
-        <v>4055656</v>
+        <v>8463421</v>
       </c>
       <c r="H150" s="15">
-        <v>8463421</v>
+        <v>7697322</v>
       </c>
       <c r="I150" s="15">
-        <v>7697322</v>
+        <v>11066155</v>
       </c>
     </row>
   </sheetData>
